--- a/JMDRGG_0316/2.feladat.xlsx
+++ b/JMDRGG_0316/2.feladat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diakoffice-my.sharepoint.com/personal/rob__sulid_hu/Documents/EGYETEM/2020-2021-02/Operacios_rendszerek/gyakorlat/JMDRGGOsGyak/JMDRGG_0316/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6181CA-A301-4551-BD5A-F10134151926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{DC6181CA-A301-4551-BD5A-F10134151926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{40343C31-2BEE-4850-8443-B275FC336F97}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1905" windowWidth="17280" windowHeight="11385" xr2:uid="{470C459F-9058-417E-8659-1849A433C267}"/>
+    <workbookView xWindow="6390" yWindow="1005" windowWidth="17280" windowHeight="11385" xr2:uid="{470C459F-9058-417E-8659-1849A433C267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>RR = 10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>P1</t>
   </si>
@@ -124,16 +121,26 @@
   </si>
   <si>
     <t>0.1ms / cs</t>
+  </si>
+  <si>
+    <t>ms = 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,40 +487,40 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -520,25 +528,25 @@
       <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -546,51 +554,51 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -598,25 +606,25 @@
       <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -624,115 +632,119 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>12</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>26</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>52</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>3</v>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
         <v>52</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>52</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>62</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>62</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>68</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <f>SUM(F2:F9) /4</f>
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
       </c>
       <c r="L12">
         <f>10 + 8 + 4 + 3 + 8 + 11 + 10 + 10 + 16 + 12 + 10</f>
@@ -741,7 +753,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <f>L12 /4</f>
@@ -750,13 +762,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
       </c>
       <c r="J14" s="1">
         <f>(10 + 4 + 8 + 10 + 16 + 10) / 68.4</f>
@@ -765,7 +777,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/JMDRGG_0316/2.feladat.xlsx
+++ b/JMDRGG_0316/2.feladat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diakoffice-my.sharepoint.com/personal/rob__sulid_hu/Documents/EGYETEM/2020-2021-02/Operacios_rendszerek/gyakorlat/JMDRGGOsGyak/JMDRGG_0316/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{DC6181CA-A301-4551-BD5A-F10134151926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{40343C31-2BEE-4850-8443-B275FC336F97}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{DC6181CA-A301-4551-BD5A-F10134151926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2EA6E96-17CD-476B-B012-BBE0298535A0}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1005" windowWidth="17280" windowHeight="11385" xr2:uid="{470C459F-9058-417E-8659-1849A433C267}"/>
+    <workbookView xWindow="7875" yWindow="450" windowWidth="17280" windowHeight="11385" xr2:uid="{470C459F-9058-417E-8659-1849A433C267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C40D39-3B0C-4A34-9D0A-C9CE86ABC9FF}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
